--- a/Data_frame/balancos_definitivos/BDLL4.xlsx
+++ b/Data_frame/balancos_definitivos/BDLL4.xlsx
@@ -894,31 +894,31 @@
         <v>663361.9840000001</v>
       </c>
       <c r="AY2" t="n">
-        <v>2181</v>
+        <v>664505.024</v>
       </c>
       <c r="AZ2" t="n">
-        <v>565</v>
+        <v>651819.008</v>
       </c>
       <c r="BA2" t="n">
-        <v>973</v>
+        <v>642112</v>
       </c>
       <c r="BB2" t="n">
-        <v>1644</v>
+        <v>690916.992</v>
       </c>
       <c r="BC2" t="n">
-        <v>2227</v>
+        <v>662571.008</v>
       </c>
       <c r="BD2" t="n">
-        <v>513</v>
+        <v>661640</v>
       </c>
       <c r="BE2" t="n">
-        <v>539</v>
+        <v>662516.992</v>
       </c>
       <c r="BF2" t="n">
-        <v>539</v>
+        <v>629582.976</v>
       </c>
       <c r="BG2" t="n">
-        <v>823</v>
+        <v>627998.0159999999</v>
       </c>
       <c r="BH2" t="n">
         <v>571193.9840000001</v>
@@ -1081,31 +1081,31 @@
         <v>261316.992</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>264434</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>250676.992</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>246886</v>
       </c>
       <c r="BB3" t="n">
-        <v>1636</v>
+        <v>296516.992</v>
       </c>
       <c r="BC3" t="n">
-        <v>2227</v>
+        <v>362275.008</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>301747.008</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>304151.008</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>307742.016</v>
       </c>
       <c r="BG3" t="n">
-        <v>814</v>
+        <v>307174.016</v>
       </c>
       <c r="BH3" t="n">
         <v>265963.008</v>
@@ -1268,31 +1268,31 @@
         <v>352</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>1144</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>48318</v>
       </c>
       <c r="BC4" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>8790</v>
       </c>
       <c r="BE4" t="n">
-        <v>0</v>
+        <v>5198</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>25708</v>
       </c>
       <c r="BG4" t="n">
-        <v>0</v>
+        <v>26503</v>
       </c>
       <c r="BH4" t="n">
         <v>26941</v>
@@ -1642,31 +1642,31 @@
         <v>122849</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>111831</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>116186</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>118331</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>119417</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>231491.008</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>189715.008</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>195436.992</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>180868.992</v>
       </c>
       <c r="BG6" t="n">
-        <v>0</v>
+        <v>178259.008</v>
       </c>
       <c r="BH6" t="n">
         <v>155384</v>
@@ -1829,31 +1829,31 @@
         <v>87923</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>96991</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>85613</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>84450</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>84571</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>84066</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>55356</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>55039</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>55128</v>
       </c>
       <c r="BG7" t="n">
-        <v>0</v>
+        <v>57008</v>
       </c>
       <c r="BH7" t="n">
         <v>48114</v>
@@ -2203,31 +2203,31 @@
         <v>7902</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>11790</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>10578</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>10797</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>10990</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>11282</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>8603</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>8845</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>9328</v>
       </c>
       <c r="BG9" t="n">
-        <v>0</v>
+        <v>9860</v>
       </c>
       <c r="BH9" t="n">
         <v>10801</v>
@@ -2390,31 +2390,31 @@
         <v>1930</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>1504</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>1927</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="BG10" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="BH10" t="n">
         <v>108</v>
@@ -2577,31 +2577,31 @@
         <v>40361</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>42025</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>36069</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>31247</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>31641</v>
       </c>
       <c r="BC11" t="n">
-        <v>2227</v>
+        <v>33351</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>39202</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>39217</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>36410</v>
       </c>
       <c r="BG11" t="n">
-        <v>0</v>
+        <v>35312</v>
       </c>
       <c r="BH11" t="n">
         <v>24615</v>
@@ -2764,31 +2764,31 @@
         <v>22929</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>22957</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>40809</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>34913</v>
       </c>
       <c r="BB12" t="n">
-        <v>1636</v>
+        <v>35066</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>59540</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>120686</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>120133</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>116418</v>
       </c>
       <c r="BG12" t="n">
-        <v>814</v>
+        <v>116138</v>
       </c>
       <c r="BH12" t="n">
         <v>127175</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
         <v>0</v>
@@ -2969,13 +2969,13 @@
         <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
@@ -3343,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="BE15" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
@@ -3512,31 +3512,31 @@
         <v>10143</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>10143</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>26553</v>
       </c>
       <c r="BA16" t="n">
-        <v>0</v>
+        <v>20090</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>20090</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>20091</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>10143</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>10143</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>10143</v>
       </c>
       <c r="BG16" t="n">
-        <v>0</v>
+        <v>10143</v>
       </c>
       <c r="BH16" t="n">
         <v>10143</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
         <v>0</v>
@@ -4634,31 +4634,31 @@
         <v>296228</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
+        <v>295742.016</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0</v>
+        <v>281999.008</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>281827.008</v>
       </c>
       <c r="BB22" t="n">
-        <v>8</v>
+        <v>281734.016</v>
       </c>
       <c r="BC22" t="n">
-        <v>0</v>
+        <v>181864</v>
       </c>
       <c r="BD22" t="n">
-        <v>0</v>
+        <v>180944.992</v>
       </c>
       <c r="BE22" t="n">
-        <v>0</v>
+        <v>180347.008</v>
       </c>
       <c r="BF22" t="n">
-        <v>0</v>
+        <v>147716</v>
       </c>
       <c r="BG22" t="n">
-        <v>0</v>
+        <v>147323.008</v>
       </c>
       <c r="BH22" t="n">
         <v>121006</v>
@@ -4821,31 +4821,31 @@
         <v>58366</v>
       </c>
       <c r="AY23" t="n">
-        <v>0</v>
+        <v>56851</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0</v>
+        <v>53813</v>
       </c>
       <c r="BA23" t="n">
-        <v>11</v>
+        <v>53965</v>
       </c>
       <c r="BB23" t="n">
-        <v>8</v>
+        <v>53079</v>
       </c>
       <c r="BC23" t="n">
-        <v>0</v>
+        <v>34417</v>
       </c>
       <c r="BD23" t="n">
-        <v>0</v>
+        <v>33787</v>
       </c>
       <c r="BE23" t="n">
-        <v>0</v>
+        <v>33409</v>
       </c>
       <c r="BF23" t="n">
-        <v>0</v>
+        <v>33230</v>
       </c>
       <c r="BG23" t="n">
-        <v>0</v>
+        <v>32886</v>
       </c>
       <c r="BH23" t="n">
         <v>32551</v>
@@ -5008,31 +5008,31 @@
         <v>24522</v>
       </c>
       <c r="AY24" t="n">
-        <v>0</v>
+        <v>24521</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0</v>
+        <v>24521</v>
       </c>
       <c r="BA24" t="n">
-        <v>0</v>
+        <v>24521</v>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>24521</v>
       </c>
       <c r="BC24" t="n">
-        <v>0</v>
+        <v>24475</v>
       </c>
       <c r="BD24" t="n">
-        <v>0</v>
+        <v>24475</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>24477</v>
       </c>
       <c r="BF24" t="n">
-        <v>0</v>
+        <v>24477</v>
       </c>
       <c r="BG24" t="n">
-        <v>0</v>
+        <v>24477</v>
       </c>
       <c r="BH24" t="n">
         <v>24499</v>
@@ -5382,31 +5382,31 @@
         <v>663361.9840000001</v>
       </c>
       <c r="AY26" t="n">
-        <v>0</v>
+        <v>664505.024</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0</v>
+        <v>651819.008</v>
       </c>
       <c r="BA26" t="n">
-        <v>0</v>
+        <v>642112</v>
       </c>
       <c r="BB26" t="n">
-        <v>0</v>
+        <v>690916.992</v>
       </c>
       <c r="BC26" t="n">
-        <v>0</v>
+        <v>662571.008</v>
       </c>
       <c r="BD26" t="n">
-        <v>0</v>
+        <v>661640</v>
       </c>
       <c r="BE26" t="n">
-        <v>0</v>
+        <v>662516.992</v>
       </c>
       <c r="BF26" t="n">
-        <v>0</v>
+        <v>629582.976</v>
       </c>
       <c r="BG26" t="n">
-        <v>0</v>
+        <v>627998.0159999999</v>
       </c>
       <c r="BH26" t="n">
         <v>571193.9840000001</v>
@@ -5569,31 +5569,31 @@
         <v>518817.984</v>
       </c>
       <c r="AY27" t="n">
-        <v>0</v>
+        <v>527632.992</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0</v>
+        <v>341763.008</v>
       </c>
       <c r="BA27" t="n">
-        <v>0</v>
+        <v>343532.992</v>
       </c>
       <c r="BB27" t="n">
-        <v>0</v>
+        <v>398164</v>
       </c>
       <c r="BC27" t="n">
-        <v>0</v>
+        <v>433527.008</v>
       </c>
       <c r="BD27" t="n">
-        <v>0</v>
+        <v>285024.992</v>
       </c>
       <c r="BE27" t="n">
-        <v>0</v>
+        <v>298171.008</v>
       </c>
       <c r="BF27" t="n">
-        <v>0</v>
+        <v>315211.008</v>
       </c>
       <c r="BG27" t="n">
-        <v>0</v>
+        <v>321144</v>
       </c>
       <c r="BH27" t="n">
         <v>308604</v>
@@ -5756,31 +5756,31 @@
         <v>161380</v>
       </c>
       <c r="AY28" t="n">
-        <v>2181</v>
+        <v>162674</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0</v>
+        <v>147164.992</v>
       </c>
       <c r="BA28" t="n">
-        <v>973</v>
+        <v>150640.992</v>
       </c>
       <c r="BB28" t="n">
-        <v>1644</v>
+        <v>151604.992</v>
       </c>
       <c r="BC28" t="n">
-        <v>2227</v>
+        <v>128272</v>
       </c>
       <c r="BD28" t="n">
-        <v>0</v>
+        <v>115209</v>
       </c>
       <c r="BE28" t="n">
-        <v>539</v>
+        <v>117767</v>
       </c>
       <c r="BF28" t="n">
-        <v>539</v>
+        <v>115559</v>
       </c>
       <c r="BG28" t="n">
-        <v>823</v>
+        <v>114159</v>
       </c>
       <c r="BH28" t="n">
         <v>113124</v>
@@ -5943,31 +5943,31 @@
         <v>101119</v>
       </c>
       <c r="AY29" t="n">
-        <v>0</v>
+        <v>101732</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0</v>
+        <v>36294</v>
       </c>
       <c r="BA29" t="n">
-        <v>962</v>
+        <v>38119</v>
       </c>
       <c r="BB29" t="n">
-        <v>1633</v>
+        <v>37416</v>
       </c>
       <c r="BC29" t="n">
-        <v>2217</v>
+        <v>38180</v>
       </c>
       <c r="BD29" t="n">
-        <v>0</v>
+        <v>24643</v>
       </c>
       <c r="BE29" t="n">
-        <v>530</v>
+        <v>25639</v>
       </c>
       <c r="BF29" t="n">
-        <v>530</v>
+        <v>22358</v>
       </c>
       <c r="BG29" t="n">
-        <v>815</v>
+        <v>19278</v>
       </c>
       <c r="BH29" t="n">
         <v>18656</v>
@@ -6130,31 +6130,31 @@
         <v>45432</v>
       </c>
       <c r="AY30" t="n">
-        <v>0</v>
+        <v>47000</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0</v>
+        <v>48846</v>
       </c>
       <c r="BA30" t="n">
-        <v>0</v>
+        <v>51139</v>
       </c>
       <c r="BB30" t="n">
-        <v>0</v>
+        <v>53400</v>
       </c>
       <c r="BC30" t="n">
-        <v>0</v>
+        <v>53631</v>
       </c>
       <c r="BD30" t="n">
-        <v>0</v>
+        <v>55242</v>
       </c>
       <c r="BE30" t="n">
-        <v>0</v>
+        <v>57414</v>
       </c>
       <c r="BF30" t="n">
-        <v>0</v>
+        <v>59818</v>
       </c>
       <c r="BG30" t="n">
-        <v>0</v>
+        <v>61858</v>
       </c>
       <c r="BH30" t="n">
         <v>64120</v>
@@ -6317,7 +6317,7 @@
         <v>109811</v>
       </c>
       <c r="AY31" t="n">
-        <v>0</v>
+        <v>112885</v>
       </c>
       <c r="AZ31" t="n">
         <v>0</v>
@@ -6329,19 +6329,19 @@
         <v>0</v>
       </c>
       <c r="BC31" t="n">
-        <v>0</v>
+        <v>55808</v>
       </c>
       <c r="BD31" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="BE31" t="n">
-        <v>0</v>
+        <v>1439</v>
       </c>
       <c r="BF31" t="n">
-        <v>0</v>
+        <v>14463</v>
       </c>
       <c r="BG31" t="n">
-        <v>0</v>
+        <v>16727</v>
       </c>
       <c r="BH31" t="n">
         <v>18578</v>
@@ -6878,31 +6878,31 @@
         <v>75377</v>
       </c>
       <c r="AY34" t="n">
-        <v>0</v>
+        <v>84826</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0</v>
+        <v>81112</v>
       </c>
       <c r="BA34" t="n">
-        <v>0</v>
+        <v>85805</v>
       </c>
       <c r="BB34" t="n">
-        <v>0</v>
+        <v>138456</v>
       </c>
       <c r="BC34" t="n">
-        <v>0</v>
+        <v>140618</v>
       </c>
       <c r="BD34" t="n">
-        <v>0</v>
+        <v>76061</v>
       </c>
       <c r="BE34" t="n">
-        <v>0</v>
+        <v>82596</v>
       </c>
       <c r="BF34" t="n">
-        <v>0</v>
+        <v>89722</v>
       </c>
       <c r="BG34" t="n">
-        <v>0</v>
+        <v>94915</v>
       </c>
       <c r="BH34" t="n">
         <v>82507</v>
@@ -7065,31 +7065,31 @@
         <v>25699</v>
       </c>
       <c r="AY35" t="n">
-        <v>0</v>
+        <v>18516</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0</v>
+        <v>28346</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
+        <v>17829</v>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>17287</v>
       </c>
       <c r="BC35" t="n">
-        <v>0</v>
+        <v>17018</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>13646</v>
       </c>
       <c r="BE35" t="n">
-        <v>0</v>
+        <v>13316</v>
       </c>
       <c r="BF35" t="n">
-        <v>0</v>
+        <v>13291</v>
       </c>
       <c r="BG35" t="n">
-        <v>0</v>
+        <v>14207</v>
       </c>
       <c r="BH35" t="n">
         <v>11619</v>
@@ -7439,31 +7439,31 @@
         <v>323379.008</v>
       </c>
       <c r="AY37" t="n">
-        <v>0</v>
+        <v>323718.016</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0</v>
+        <v>486460.992</v>
       </c>
       <c r="BA37" t="n">
-        <v>0</v>
+        <v>488704.992</v>
       </c>
       <c r="BB37" t="n">
-        <v>0</v>
+        <v>490312</v>
       </c>
       <c r="BC37" t="n">
-        <v>0</v>
+        <v>410384.992</v>
       </c>
       <c r="BD37" t="n">
-        <v>0</v>
+        <v>487329.984</v>
       </c>
       <c r="BE37" t="n">
-        <v>0</v>
+        <v>488052.992</v>
       </c>
       <c r="BF37" t="n">
-        <v>0</v>
+        <v>456664</v>
       </c>
       <c r="BG37" t="n">
-        <v>0</v>
+        <v>462456.992</v>
       </c>
       <c r="BH37" t="n">
         <v>455744.992</v>
@@ -7626,31 +7626,31 @@
         <v>135122</v>
       </c>
       <c r="AY38" t="n">
-        <v>0</v>
+        <v>131562</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0</v>
+        <v>219050</v>
       </c>
       <c r="BA38" t="n">
-        <v>962</v>
+        <v>219284.992</v>
       </c>
       <c r="BB38" t="n">
-        <v>1633</v>
+        <v>219284.992</v>
       </c>
       <c r="BC38" t="n">
-        <v>2217</v>
+        <v>166594</v>
       </c>
       <c r="BD38" t="n">
-        <v>0</v>
+        <v>166928.992</v>
       </c>
       <c r="BE38" t="n">
-        <v>530</v>
+        <v>167490</v>
       </c>
       <c r="BF38" t="n">
-        <v>530</v>
+        <v>168232</v>
       </c>
       <c r="BG38" t="n">
-        <v>815</v>
+        <v>168784.992</v>
       </c>
       <c r="BH38" t="n">
         <v>169406</v>
@@ -7813,31 +7813,31 @@
         <v>91289</v>
       </c>
       <c r="AY39" t="n">
-        <v>0</v>
+        <v>95115</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0</v>
+        <v>98579</v>
       </c>
       <c r="BA39" t="n">
-        <v>0</v>
+        <v>100709</v>
       </c>
       <c r="BB39" t="n">
-        <v>0</v>
+        <v>103519</v>
       </c>
       <c r="BC39" t="n">
-        <v>0</v>
+        <v>104470</v>
       </c>
       <c r="BD39" t="n">
-        <v>0</v>
+        <v>134930</v>
       </c>
       <c r="BE39" t="n">
-        <v>0</v>
+        <v>135948.992</v>
       </c>
       <c r="BF39" t="n">
-        <v>0</v>
+        <v>107559</v>
       </c>
       <c r="BG39" t="n">
-        <v>0</v>
+        <v>108621</v>
       </c>
       <c r="BH39" t="n">
         <v>111144</v>
@@ -8000,31 +8000,31 @@
         <v>45901</v>
       </c>
       <c r="AY40" t="n">
-        <v>0</v>
+        <v>46095</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0</v>
+        <v>86001</v>
       </c>
       <c r="BA40" t="n">
-        <v>0</v>
+        <v>133097</v>
       </c>
       <c r="BB40" t="n">
-        <v>0</v>
+        <v>86000</v>
       </c>
       <c r="BC40" t="n">
-        <v>0</v>
+        <v>86001</v>
       </c>
       <c r="BD40" t="n">
-        <v>0</v>
+        <v>120501</v>
       </c>
       <c r="BE40" t="n">
-        <v>0</v>
+        <v>120501</v>
       </c>
       <c r="BF40" t="n">
-        <v>0</v>
+        <v>150030</v>
       </c>
       <c r="BG40" t="n">
-        <v>0</v>
+        <v>125097</v>
       </c>
       <c r="BH40" t="n">
         <v>125658</v>
@@ -8561,31 +8561,31 @@
         <v>51067</v>
       </c>
       <c r="AY43" t="n">
-        <v>0</v>
+        <v>50946</v>
       </c>
       <c r="AZ43" t="n">
-        <v>0</v>
+        <v>82831</v>
       </c>
       <c r="BA43" t="n">
-        <v>0</v>
+        <v>35614</v>
       </c>
       <c r="BB43" t="n">
-        <v>0</v>
+        <v>81508</v>
       </c>
       <c r="BC43" t="n">
-        <v>0</v>
+        <v>53320</v>
       </c>
       <c r="BD43" t="n">
-        <v>0</v>
+        <v>64970</v>
       </c>
       <c r="BE43" t="n">
-        <v>0</v>
+        <v>64113</v>
       </c>
       <c r="BF43" t="n">
-        <v>0</v>
+        <v>30843</v>
       </c>
       <c r="BG43" t="n">
-        <v>0</v>
+        <v>59954</v>
       </c>
       <c r="BH43" t="n">
         <v>49537</v>
@@ -9309,31 +9309,31 @@
         <v>-178835.008</v>
       </c>
       <c r="AY47" t="n">
-        <v>0</v>
+        <v>-186846</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0</v>
+        <v>-176404.992</v>
       </c>
       <c r="BA47" t="n">
-        <v>0</v>
+        <v>-190126</v>
       </c>
       <c r="BB47" t="n">
-        <v>0</v>
+        <v>-197559.008</v>
       </c>
       <c r="BC47" t="n">
-        <v>0</v>
+        <v>-181340.992</v>
       </c>
       <c r="BD47" t="n">
-        <v>0</v>
+        <v>-110715</v>
       </c>
       <c r="BE47" t="n">
-        <v>0</v>
+        <v>-123707</v>
       </c>
       <c r="BF47" t="n">
-        <v>0</v>
+        <v>-142292</v>
       </c>
       <c r="BG47" t="n">
-        <v>0</v>
+        <v>-155603.008</v>
       </c>
       <c r="BH47" t="n">
         <v>-193155.008</v>
@@ -9496,31 +9496,31 @@
         <v>116800</v>
       </c>
       <c r="AY48" t="n">
-        <v>0</v>
+        <v>116800</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0</v>
+        <v>116800</v>
       </c>
       <c r="BA48" t="n">
-        <v>0</v>
+        <v>116800</v>
       </c>
       <c r="BB48" t="n">
-        <v>0</v>
+        <v>116800</v>
       </c>
       <c r="BC48" t="n">
-        <v>0</v>
+        <v>116800</v>
       </c>
       <c r="BD48" t="n">
-        <v>0</v>
+        <v>116800</v>
       </c>
       <c r="BE48" t="n">
-        <v>0</v>
+        <v>116800</v>
       </c>
       <c r="BF48" t="n">
-        <v>0</v>
+        <v>116800</v>
       </c>
       <c r="BG48" t="n">
-        <v>0</v>
+        <v>116800</v>
       </c>
       <c r="BH48" t="n">
         <v>116800</v>
@@ -9683,31 +9683,31 @@
         <v>2964</v>
       </c>
       <c r="AY49" t="n">
-        <v>0</v>
+        <v>2964</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0</v>
+        <v>2964</v>
       </c>
       <c r="BA49" t="n">
-        <v>0</v>
+        <v>2964</v>
       </c>
       <c r="BB49" t="n">
-        <v>0</v>
+        <v>2964</v>
       </c>
       <c r="BC49" t="n">
-        <v>0</v>
+        <v>2964</v>
       </c>
       <c r="BD49" t="n">
-        <v>0</v>
+        <v>2964</v>
       </c>
       <c r="BE49" t="n">
-        <v>0</v>
+        <v>2964</v>
       </c>
       <c r="BF49" t="n">
-        <v>0</v>
+        <v>2964</v>
       </c>
       <c r="BG49" t="n">
-        <v>0</v>
+        <v>2964</v>
       </c>
       <c r="BH49" t="n">
         <v>2964</v>
@@ -10057,31 +10057,31 @@
         <v>-476048</v>
       </c>
       <c r="AY51" t="n">
-        <v>0</v>
+        <v>-483478.016</v>
       </c>
       <c r="AZ51" t="n">
-        <v>11</v>
+        <v>-473672.992</v>
       </c>
       <c r="BA51" t="n">
-        <v>11</v>
+        <v>-487332.992</v>
       </c>
       <c r="BB51" t="n">
-        <v>11</v>
+        <v>-484364</v>
       </c>
       <c r="BC51" t="n">
-        <v>10</v>
+        <v>-402686.016</v>
       </c>
       <c r="BD51" t="n">
-        <v>7</v>
+        <v>-332160</v>
       </c>
       <c r="BE51" t="n">
-        <v>9</v>
+        <v>-334539.008</v>
       </c>
       <c r="BF51" t="n">
-        <v>9</v>
+        <v>-362873.984</v>
       </c>
       <c r="BG51" t="n">
-        <v>8</v>
+        <v>-376120.992</v>
       </c>
       <c r="BH51" t="n">
         <v>-413592</v>
@@ -10250,25 +10250,25 @@
         <v>0</v>
       </c>
       <c r="BA52" t="n">
-        <v>1504802.048</v>
+        <v>0</v>
       </c>
       <c r="BB52" t="n">
-        <v>1504802.048</v>
+        <v>0</v>
       </c>
       <c r="BC52" t="n">
-        <v>1504802.048</v>
+        <v>0</v>
       </c>
       <c r="BD52" t="n">
         <v>0</v>
       </c>
       <c r="BE52" t="n">
-        <v>1504802.048</v>
+        <v>0</v>
       </c>
       <c r="BF52" t="n">
-        <v>1504802.048</v>
+        <v>0</v>
       </c>
       <c r="BG52" t="n">
-        <v>1504802.048</v>
+        <v>0</v>
       </c>
       <c r="BH52" t="n">
         <v>0</v>
@@ -10805,31 +10805,31 @@
         <v>177448.992</v>
       </c>
       <c r="AY55" t="n">
-        <v>0</v>
+        <v>176868</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0</v>
+        <v>177504</v>
       </c>
       <c r="BA55" t="n">
-        <v>0</v>
+        <v>177443.008</v>
       </c>
       <c r="BB55" t="n">
-        <v>0</v>
+        <v>167040.992</v>
       </c>
       <c r="BC55" t="n">
-        <v>0</v>
+        <v>101581</v>
       </c>
       <c r="BD55" t="n">
-        <v>0</v>
+        <v>101681</v>
       </c>
       <c r="BE55" t="n">
-        <v>0</v>
+        <v>91068</v>
       </c>
       <c r="BF55" t="n">
-        <v>0</v>
+        <v>100818</v>
       </c>
       <c r="BG55" t="n">
-        <v>0</v>
+        <v>100754</v>
       </c>
       <c r="BH55" t="n">
         <v>100673</v>
@@ -10998,25 +10998,25 @@
         <v>0</v>
       </c>
       <c r="BA56" t="n">
-        <v>424136.992</v>
+        <v>0</v>
       </c>
       <c r="BB56" t="n">
-        <v>424136.992</v>
+        <v>0</v>
       </c>
       <c r="BC56" t="n">
-        <v>424136.992</v>
+        <v>0</v>
       </c>
       <c r="BD56" t="n">
         <v>0</v>
       </c>
       <c r="BE56" t="n">
-        <v>424136</v>
+        <v>0</v>
       </c>
       <c r="BF56" t="n">
-        <v>424136</v>
+        <v>0</v>
       </c>
       <c r="BG56" t="n">
-        <v>424134.016</v>
+        <v>0</v>
       </c>
       <c r="BH56" t="n">
         <v>0</v>
@@ -11090,33 +11090,15 @@
       <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="inlineStr"/>
-      <c r="AY57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>-1928928</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>-1928928</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>-1928929.024</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE57" t="n">
-        <v>-1928929.024</v>
-      </c>
-      <c r="BF57" t="n">
-        <v>-1928929.024</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>-1928928</v>
-      </c>
+      <c r="AY57" t="inlineStr"/>
+      <c r="AZ57" t="inlineStr"/>
+      <c r="BA57" t="inlineStr"/>
+      <c r="BB57" t="inlineStr"/>
+      <c r="BC57" t="inlineStr"/>
+      <c r="BD57" t="inlineStr"/>
+      <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="inlineStr"/>
+      <c r="BG57" t="inlineStr"/>
       <c r="BH57" t="inlineStr"/>
       <c r="BI57" t="inlineStr"/>
     </row>
@@ -11185,33 +11167,15 @@
       <c r="AV58" t="inlineStr"/>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="inlineStr"/>
-      <c r="AY58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG58" t="n">
-        <v>0</v>
-      </c>
+      <c r="AY58" t="inlineStr"/>
+      <c r="AZ58" t="inlineStr"/>
+      <c r="BA58" t="inlineStr"/>
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="inlineStr"/>
+      <c r="BD58" t="inlineStr"/>
+      <c r="BE58" t="inlineStr"/>
+      <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
       <c r="BH58" t="inlineStr"/>
       <c r="BI58" t="inlineStr"/>
     </row>
@@ -11369,31 +11333,31 @@
         <v>6745</v>
       </c>
       <c r="AY59" t="n">
-        <v>0</v>
+        <v>14027</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0</v>
+        <v>4552</v>
       </c>
       <c r="BA59" t="n">
-        <v>0</v>
+        <v>2866</v>
       </c>
       <c r="BB59" t="n">
-        <v>0</v>
+        <v>3672</v>
       </c>
       <c r="BC59" t="n">
-        <v>0</v>
+        <v>16137</v>
       </c>
       <c r="BD59" t="n">
-        <v>0</v>
+        <v>8872</v>
       </c>
       <c r="BE59" t="n">
-        <v>0</v>
+        <v>9507</v>
       </c>
       <c r="BF59" t="n">
-        <v>0</v>
+        <v>11921</v>
       </c>
       <c r="BG59" t="n">
-        <v>0</v>
+        <v>-4513</v>
       </c>
       <c r="BH59" t="n">
         <v>4120</v>
@@ -11556,31 +11520,31 @@
         <v>-7153</v>
       </c>
       <c r="AY60" t="n">
-        <v>0</v>
+        <v>-19543</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0</v>
+        <v>-6040</v>
       </c>
       <c r="BA60" t="n">
-        <v>0</v>
+        <v>-4546</v>
       </c>
       <c r="BB60" t="n">
-        <v>0</v>
+        <v>-7335</v>
       </c>
       <c r="BC60" t="n">
-        <v>0</v>
+        <v>-30339</v>
       </c>
       <c r="BD60" t="n">
-        <v>0</v>
+        <v>-9500</v>
       </c>
       <c r="BE60" t="n">
-        <v>0</v>
+        <v>-9559</v>
       </c>
       <c r="BF60" t="n">
-        <v>0</v>
+        <v>-10373</v>
       </c>
       <c r="BG60" t="n">
-        <v>0</v>
+        <v>-9817</v>
       </c>
       <c r="BH60" t="n">
         <v>-5272</v>
@@ -11743,27 +11707,31 @@
         <v>-408</v>
       </c>
       <c r="AY61" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ61" t="inlineStr"/>
+        <v>-5516</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>-1488</v>
+      </c>
       <c r="BA61" t="n">
-        <v>6</v>
+        <v>-1680</v>
       </c>
       <c r="BB61" t="n">
-        <v>0</v>
+        <v>-3663</v>
       </c>
       <c r="BC61" t="n">
-        <v>-3</v>
-      </c>
-      <c r="BD61" t="inlineStr"/>
+        <v>-14202</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>-628</v>
+      </c>
       <c r="BE61" t="n">
-        <v>1</v>
+        <v>-52</v>
       </c>
       <c r="BF61" t="n">
-        <v>1</v>
+        <v>1548</v>
       </c>
       <c r="BG61" t="n">
-        <v>-1</v>
+        <v>-14330</v>
       </c>
       <c r="BH61" t="n">
         <v>-1152</v>
@@ -11926,31 +11894,31 @@
         <v>-720</v>
       </c>
       <c r="AY62" t="n">
-        <v>0</v>
+        <v>-833</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0</v>
+        <v>-701</v>
       </c>
       <c r="BA62" t="n">
-        <v>0</v>
+        <v>-750</v>
       </c>
       <c r="BB62" t="n">
-        <v>0</v>
+        <v>-815</v>
       </c>
       <c r="BC62" t="n">
-        <v>0</v>
+        <v>-1280</v>
       </c>
       <c r="BD62" t="n">
-        <v>0</v>
+        <v>-851</v>
       </c>
       <c r="BE62" t="n">
-        <v>0</v>
+        <v>-687</v>
       </c>
       <c r="BF62" t="n">
-        <v>0</v>
+        <v>-685</v>
       </c>
       <c r="BG62" t="n">
-        <v>0</v>
+        <v>-435</v>
       </c>
       <c r="BH62" t="n">
         <v>-606</v>
@@ -12113,31 +12081,31 @@
         <v>-4029</v>
       </c>
       <c r="AY63" t="n">
-        <v>0</v>
+        <v>-3346</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0</v>
+        <v>-4062</v>
       </c>
       <c r="BA63" t="n">
-        <v>0</v>
+        <v>-3466</v>
       </c>
       <c r="BB63" t="n">
-        <v>0</v>
+        <v>-5107</v>
       </c>
       <c r="BC63" t="n">
-        <v>0</v>
+        <v>-8287</v>
       </c>
       <c r="BD63" t="n">
-        <v>0</v>
+        <v>-4497</v>
       </c>
       <c r="BE63" t="n">
-        <v>0</v>
+        <v>-5157</v>
       </c>
       <c r="BF63" t="n">
-        <v>0</v>
+        <v>-6472</v>
       </c>
       <c r="BG63" t="n">
-        <v>0</v>
+        <v>-3704</v>
       </c>
       <c r="BH63" t="n">
         <v>-5255</v>
@@ -12288,31 +12256,31 @@
         <v>0</v>
       </c>
       <c r="AY64" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AZ64" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="BA64" t="n">
-        <v>-789</v>
+        <v>0</v>
       </c>
       <c r="BB64" t="n">
-        <v>-957</v>
+        <v>0</v>
       </c>
       <c r="BC64" t="n">
-        <v>-678</v>
+        <v>0</v>
       </c>
       <c r="BD64" t="n">
-        <v>-797</v>
+        <v>0</v>
       </c>
       <c r="BE64" t="n">
-        <v>-632</v>
+        <v>0</v>
       </c>
       <c r="BF64" t="n">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="BG64" t="n">
-        <v>-613</v>
+        <v>0</v>
       </c>
       <c r="BH64" t="n">
         <v>0</v>
@@ -12478,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="AZ65" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="BA65" t="n">
         <v>0</v>
@@ -12490,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="BD65" t="n">
-        <v>3223</v>
+        <v>0</v>
       </c>
       <c r="BE65" t="n">
         <v>0</v>
@@ -12662,31 +12630,31 @@
         <v>-1344</v>
       </c>
       <c r="AY66" t="n">
-        <v>-218</v>
+        <v>7434</v>
       </c>
       <c r="AZ66" t="n">
-        <v>-661</v>
+        <v>-1982</v>
       </c>
       <c r="BA66" t="n">
-        <v>789</v>
+        <v>449</v>
       </c>
       <c r="BB66" t="n">
-        <v>957</v>
+        <v>-2085</v>
       </c>
       <c r="BC66" t="n">
-        <v>675</v>
+        <v>27568</v>
       </c>
       <c r="BD66" t="n">
-        <v>-2421</v>
+        <v>-1866</v>
       </c>
       <c r="BE66" t="n">
-        <v>632</v>
+        <v>-1497</v>
       </c>
       <c r="BF66" t="n">
-        <v>601</v>
+        <v>-1102</v>
       </c>
       <c r="BG66" t="n">
-        <v>612</v>
+        <v>-4059</v>
       </c>
       <c r="BH66" t="n">
         <v>477</v>
@@ -12849,31 +12817,31 @@
         <v>-518</v>
       </c>
       <c r="AY67" t="n">
-        <v>0</v>
+        <v>-245</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0</v>
+        <v>-172</v>
       </c>
       <c r="BA67" t="n">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="BB67" t="n">
-        <v>0</v>
+        <v>-179</v>
       </c>
       <c r="BC67" t="n">
-        <v>0</v>
+        <v>-936</v>
       </c>
       <c r="BD67" t="n">
-        <v>0</v>
+        <v>-582</v>
       </c>
       <c r="BE67" t="n">
-        <v>0</v>
+        <v>-6231</v>
       </c>
       <c r="BF67" t="n">
-        <v>0</v>
+        <v>-5546</v>
       </c>
       <c r="BG67" t="n">
-        <v>0</v>
+        <v>-17064</v>
       </c>
       <c r="BH67" t="n">
         <v>135</v>
@@ -13036,31 +13004,31 @@
         <v>-5068</v>
       </c>
       <c r="AY68" t="n">
-        <v>0</v>
+        <v>-2760</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-2</v>
+        <v>-5359</v>
       </c>
       <c r="BA68" t="n">
-        <v>6</v>
+        <v>-1873</v>
       </c>
       <c r="BB68" t="n">
-        <v>0</v>
+        <v>-5656</v>
       </c>
       <c r="BC68" t="n">
-        <v>0</v>
+        <v>-3216</v>
       </c>
       <c r="BD68" t="n">
-        <v>-6</v>
+        <v>-4610</v>
       </c>
       <c r="BE68" t="n">
-        <v>1</v>
+        <v>-5347</v>
       </c>
       <c r="BF68" t="n">
-        <v>0</v>
+        <v>-12946</v>
       </c>
       <c r="BG68" t="n">
-        <v>0</v>
+        <v>4044</v>
       </c>
       <c r="BH68" t="n">
         <v>-7191</v>
@@ -13223,27 +13191,31 @@
         <v>-3006</v>
       </c>
       <c r="AY69" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ69" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>71</v>
+      </c>
       <c r="BA69" t="n">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="BB69" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BC69" t="n">
-        <v>-3</v>
-      </c>
-      <c r="BD69" t="inlineStr"/>
+        <v>1262</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>164</v>
+      </c>
       <c r="BE69" t="n">
-        <v>1</v>
+        <v>1619</v>
       </c>
       <c r="BF69" t="n">
-        <v>1</v>
+        <v>2529</v>
       </c>
       <c r="BG69" t="n">
-        <v>-1</v>
+        <v>2777</v>
       </c>
       <c r="BH69" t="n">
         <v>673</v>
@@ -13406,27 +13378,31 @@
         <v>-2062</v>
       </c>
       <c r="AY70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ70" t="inlineStr"/>
+        <v>-3121</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>-5430</v>
+      </c>
       <c r="BA70" t="n">
-        <v>0</v>
+        <v>-2054</v>
       </c>
       <c r="BB70" t="n">
-        <v>0</v>
+        <v>-5755</v>
       </c>
       <c r="BC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD70" t="inlineStr"/>
+        <v>-4478</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>-4774</v>
+      </c>
       <c r="BE70" t="n">
-        <v>0</v>
+        <v>-6966</v>
       </c>
       <c r="BF70" t="n">
-        <v>0</v>
+        <v>-15475</v>
       </c>
       <c r="BG70" t="n">
-        <v>0</v>
+        <v>1267</v>
       </c>
       <c r="BH70" t="n">
         <v>-7864</v>
@@ -13500,29 +13476,15 @@
       <c r="AV71" t="inlineStr"/>
       <c r="AW71" t="inlineStr"/>
       <c r="AX71" t="inlineStr"/>
-      <c r="AY71" t="n">
-        <v>0</v>
-      </c>
+      <c r="AY71" t="inlineStr"/>
       <c r="AZ71" t="inlineStr"/>
-      <c r="BA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>0</v>
-      </c>
+      <c r="BA71" t="inlineStr"/>
+      <c r="BB71" t="inlineStr"/>
+      <c r="BC71" t="inlineStr"/>
       <c r="BD71" t="inlineStr"/>
-      <c r="BE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>0</v>
-      </c>
+      <c r="BE71" t="inlineStr"/>
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
       <c r="BH71" t="inlineStr"/>
       <c r="BI71" t="inlineStr"/>
     </row>
@@ -13591,29 +13553,15 @@
       <c r="AV72" t="inlineStr"/>
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr"/>
-      <c r="AY72" t="n">
-        <v>0</v>
-      </c>
+      <c r="AY72" t="inlineStr"/>
       <c r="AZ72" t="inlineStr"/>
-      <c r="BA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>0</v>
-      </c>
+      <c r="BA72" t="inlineStr"/>
+      <c r="BB72" t="inlineStr"/>
+      <c r="BC72" t="inlineStr"/>
       <c r="BD72" t="inlineStr"/>
-      <c r="BE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>0</v>
-      </c>
+      <c r="BE72" t="inlineStr"/>
+      <c r="BF72" t="inlineStr"/>
+      <c r="BG72" t="inlineStr"/>
       <c r="BH72" t="inlineStr"/>
       <c r="BI72" t="inlineStr"/>
     </row>
@@ -13682,33 +13630,15 @@
       <c r="AV73" t="inlineStr"/>
       <c r="AW73" t="inlineStr"/>
       <c r="AX73" t="inlineStr"/>
-      <c r="AY73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>-3</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG73" t="n">
-        <v>-1</v>
-      </c>
+      <c r="AY73" t="inlineStr"/>
+      <c r="AZ73" t="inlineStr"/>
+      <c r="BA73" t="inlineStr"/>
+      <c r="BB73" t="inlineStr"/>
+      <c r="BC73" t="inlineStr"/>
+      <c r="BD73" t="inlineStr"/>
+      <c r="BE73" t="inlineStr"/>
+      <c r="BF73" t="inlineStr"/>
+      <c r="BG73" t="inlineStr"/>
       <c r="BH73" t="inlineStr"/>
       <c r="BI73" t="inlineStr"/>
     </row>
@@ -13866,31 +13796,31 @@
         <v>-12087</v>
       </c>
       <c r="AY74" t="n">
-        <v>0</v>
+        <v>-5266</v>
       </c>
       <c r="AZ74" t="n">
-        <v>0</v>
+        <v>-13764</v>
       </c>
       <c r="BA74" t="n">
-        <v>0</v>
+        <v>-7414</v>
       </c>
       <c r="BB74" t="n">
-        <v>0</v>
+        <v>-17505</v>
       </c>
       <c r="BC74" t="n">
-        <v>0</v>
+        <v>-353</v>
       </c>
       <c r="BD74" t="n">
-        <v>0</v>
+        <v>-13034</v>
       </c>
       <c r="BE74" t="n">
-        <v>0</v>
+        <v>-18971</v>
       </c>
       <c r="BF74" t="n">
-        <v>0</v>
+        <v>-25203</v>
       </c>
       <c r="BG74" t="n">
-        <v>0</v>
+        <v>-35548</v>
       </c>
       <c r="BH74" t="n">
         <v>-13592</v>
@@ -14055,7 +13985,9 @@
       <c r="AY75" t="n">
         <v>0</v>
       </c>
-      <c r="AZ75" t="inlineStr"/>
+      <c r="AZ75" t="n">
+        <v>-37</v>
+      </c>
       <c r="BA75" t="n">
         <v>0</v>
       </c>
@@ -14063,9 +13995,11 @@
         <v>0</v>
       </c>
       <c r="BC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD75" t="inlineStr"/>
+        <v>-30</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
       <c r="BE75" t="n">
         <v>0</v>
       </c>
@@ -14236,31 +14170,31 @@
         <v>0</v>
       </c>
       <c r="AY76" t="n">
-        <v>0</v>
+        <v>15798</v>
       </c>
       <c r="AZ76" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BA76" t="n">
         <v>0</v>
       </c>
       <c r="BB76" t="n">
-        <v>0</v>
+        <v>33723</v>
       </c>
       <c r="BC76" t="n">
-        <v>0</v>
+        <v>70990</v>
       </c>
       <c r="BD76" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BE76" t="n">
         <v>0</v>
       </c>
       <c r="BF76" t="n">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="BG76" t="n">
-        <v>0</v>
+        <v>9802</v>
       </c>
       <c r="BH76" t="n">
         <v>44</v>
@@ -14334,29 +14268,15 @@
       <c r="AV77" t="inlineStr"/>
       <c r="AW77" t="inlineStr"/>
       <c r="AX77" t="inlineStr"/>
-      <c r="AY77" t="n">
-        <v>0</v>
-      </c>
+      <c r="AY77" t="inlineStr"/>
       <c r="AZ77" t="inlineStr"/>
-      <c r="BA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>0</v>
-      </c>
+      <c r="BA77" t="inlineStr"/>
+      <c r="BB77" t="inlineStr"/>
+      <c r="BC77" t="inlineStr"/>
       <c r="BD77" t="inlineStr"/>
-      <c r="BE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG77" t="n">
-        <v>0</v>
-      </c>
+      <c r="BE77" t="inlineStr"/>
+      <c r="BF77" t="inlineStr"/>
+      <c r="BG77" t="inlineStr"/>
       <c r="BH77" t="inlineStr"/>
       <c r="BI77" t="inlineStr"/>
     </row>
@@ -14591,31 +14511,31 @@
         <v>0</v>
       </c>
       <c r="AY79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA79" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB79" t="n">
         <v>0</v>
       </c>
       <c r="BC79" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="BD79" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BE79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG79" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH79" t="n">
         <v>0</v>
@@ -14777,15 +14697,33 @@
       <c r="AX80" t="n">
         <v>-11996</v>
       </c>
-      <c r="AY80" t="inlineStr"/>
-      <c r="AZ80" t="inlineStr"/>
-      <c r="BA80" t="inlineStr"/>
-      <c r="BB80" t="inlineStr"/>
-      <c r="BC80" t="inlineStr"/>
-      <c r="BD80" t="inlineStr"/>
-      <c r="BE80" t="inlineStr"/>
-      <c r="BF80" t="inlineStr"/>
-      <c r="BG80" t="inlineStr"/>
+      <c r="AY80" t="n">
+        <v>10441</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>-13721</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>-7433</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>16218</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>70626</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>-12992</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>-18584</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>-24995</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>139011.008</v>
+      </c>
       <c r="BH80" t="n">
         <v>-13548</v>
       </c>
